--- a/tests/test_v2.xlsx
+++ b/tests/test_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17380" windowWidth="28560" xWindow="1880" yWindow="3560"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1880" yWindow="3560" windowWidth="28560" windowHeight="17380" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,13 +63,38 @@
       <color rgb="FF008080"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,25 +107,28 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -449,7 +477,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -459,18 +487,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.5"/>
-    <col customWidth="1" max="3" min="3" width="15.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="12.1640625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="15.5"/>
+    <col width="7.5" customWidth="1" min="1" max="1"/>
+    <col width="15.1640625" customWidth="1" min="3" max="3"/>
+    <col width="12.1640625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="15.5" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,6 +567,36 @@
           <t>source</t>
         </is>
       </c>
+      <c r="N1" s="7" t="inlineStr">
+        <is>
+          <t>control</t>
+        </is>
+      </c>
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>scenario notes</t>
+        </is>
+      </c>
+      <c r="P1" s="8" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="Q1" s="7" t="inlineStr">
+        <is>
+          <t>ui variable</t>
+        </is>
+      </c>
+      <c r="R1" s="8" t="inlineStr">
+        <is>
+          <t>user name</t>
+        </is>
+      </c>
+      <c r="S1" s="9" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -576,6 +634,9 @@
           <t>test var 1</t>
         </is>
       </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -619,6 +680,9 @@
         <is>
           <t>test var 1</t>
         </is>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -643,6 +707,9 @@
           <t>label</t>
         </is>
       </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -667,6 +734,9 @@
         <is>
           <t>label</t>
         </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -681,6 +751,9 @@
       <c r="F6" t="n">
         <v>1</v>
       </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,6 +774,9 @@
         <is>
           <t>test var 1</t>
         </is>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -726,6 +802,9 @@
         <is>
           <t>test var 1</t>
         </is>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -740,6 +819,9 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -760,6 +842,9 @@
       </c>
       <c r="J10" s="3" t="n">
         <v>42005</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -788,6 +873,9 @@
           <t>test var 1</t>
         </is>
       </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -814,6 +902,9 @@
         <is>
           <t>test var 1</t>
         </is>
+      </c>
+      <c r="S12" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -838,6 +929,9 @@
           <t>label</t>
         </is>
       </c>
+      <c r="S13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -865,18 +959,45 @@
           <t>test var 1</t>
         </is>
       </c>
-    </row>
-    <row r="15"/>
+      <c r="S14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="S15" t="n">
+        <v>14</v>
+      </c>
+    </row>
     <row r="16"/>
-    <row r="17"/>
+    <row r="17">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="8" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="8" t="n"/>
+      <c r="K17" s="7" t="n"/>
+      <c r="L17" s="7" t="n"/>
+      <c r="M17" s="7" t="n"/>
+      <c r="N17" s="7" t="n"/>
+      <c r="O17" s="7" t="n"/>
+      <c r="P17" s="8" t="n"/>
+      <c r="Q17" s="7" t="n"/>
+      <c r="R17" s="8" t="n"/>
+      <c r="S17" s="9" t="n"/>
+    </row>
     <row r="18">
       <c r="L18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -894,7 +1015,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.5"/>
+    <col width="7.5" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1020,6 +1141,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/test_v2.xlsx
+++ b/tests/test_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1880" yWindow="3560" windowWidth="28560" windowHeight="17380" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="820" yWindow="1400" windowWidth="28560" windowHeight="17380" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -609,8 +609,10 @@
           <t>exp</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>10</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>0.4</v>

--- a/tests/test_v2.xlsx
+++ b/tests/test_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE33B8FF-4EA3-F643-BEE9-69A2C461BA8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DAED32-E2FC-FA43-A9FD-947462D75891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1400" windowWidth="28560" windowHeight="17380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="1400" windowWidth="28560" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>version</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>choice</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -667,21 +670,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -689,372 +692,396 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>-0.2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.1</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>39814</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>-0.2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>39814</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="3">
+        <v>39814</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3">
+        <v>39814</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6">
+      <c r="F6" s="1"/>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="S6">
+      <c r="K6" s="3">
+        <v>39814</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="K7" t="s">
+      <c r="H7" s="1"/>
+      <c r="K7" s="3">
+        <v>39814</v>
+      </c>
+      <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" t="s">
+      <c r="K8" s="3">
+        <v>39814</v>
+      </c>
+      <c r="L8" t="s">
         <v>24</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9">
+      <c r="F9" s="1"/>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="K9" s="3">
+        <v>39814</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>123</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42005</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.1</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3">
+      <c r="J11" s="4"/>
+      <c r="K11" s="3">
         <v>39448</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.1</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3">
+      <c r="J12" s="4"/>
+      <c r="K12" s="3">
         <v>39448</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>24</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="3">
+        <v>39814</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.1</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3">
+      <c r="J14" s="4"/>
+      <c r="K14" s="3">
         <v>39814</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M18" s="1"/>
       <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1064,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1102,7 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1083,83 +1110,86 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>39814</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>39904</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.1</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>39814</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>15</v>
       </c>
     </row>

--- a/tests/test_v2.xlsx
+++ b/tests/test_v2.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DAED32-E2FC-FA43-A9FD-947462D75891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECBC57-D144-A946-A90A-073883549B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1400" windowWidth="28560" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>version</t>
   </si>
@@ -162,40 +161,10 @@
     <t>litres</t>
   </si>
   <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>param 1</t>
-  </si>
-  <si>
-    <t>param 2</t>
-  </si>
-  <si>
-    <t>param 3</t>
-  </si>
-  <si>
-    <t>start date</t>
-  </si>
-  <si>
-    <t>end date</t>
-  </si>
-  <si>
-    <t>CAGR</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>numpy.random</t>
-  </si>
-  <si>
-    <t>choice</t>
-  </si>
-  <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -670,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +653,7 @@
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -692,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -745,8 +714,11 @@
       <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -777,8 +749,11 @@
       <c r="T2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -812,8 +787,11 @@
       <c r="T3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -835,8 +813,11 @@
       <c r="T4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -858,8 +839,11 @@
       <c r="T5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -875,8 +859,11 @@
       <c r="T6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -896,8 +883,11 @@
       <c r="T7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -918,8 +908,11 @@
       <c r="T8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -935,8 +928,11 @@
       <c r="T9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -955,8 +951,11 @@
       <c r="T10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -979,8 +978,11 @@
       <c r="T11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1003,8 +1005,11 @@
       <c r="T12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -1026,8 +1031,11 @@
       <c r="T13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -1050,9 +1058,15 @@
       <c r="T14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="T15">
+        <v>14</v>
+      </c>
+      <c r="U15">
         <v>14</v>
       </c>
     </row>
@@ -1087,113 +1101,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3">
-        <v>39814</v>
-      </c>
-      <c r="K2" s="3">
-        <v>39904</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>39814</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/tests/test_v2.xlsx
+++ b/tests/test_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECBC57-D144-A946-A90A-073883549B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A95AF-59C4-1947-B0D7-7D96E095E819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1400" windowWidth="28560" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>version</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>litres</t>
-  </si>
-  <si>
-    <t>group</t>
   </si>
   <si>
     <t>order</t>
@@ -639,21 +636,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -661,441 +658,437 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>0.4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H2" s="4">
+        <v>-0.2</v>
+      </c>
       <c r="I2" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="J2" s="4">
         <v>0.1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="J2" s="3">
         <v>39814</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>0.4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H3" s="4">
+        <v>-0.2</v>
+      </c>
       <c r="I3" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="J3" s="4">
         <v>0.1</v>
       </c>
-      <c r="K3" s="3">
+      <c r="J3" s="3">
         <v>39814</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>24</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="3">
+      <c r="J4" s="3">
         <v>39814</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="3">
+      <c r="J5" s="3">
         <v>39814</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
       </c>
       <c r="T5">
         <v>4</v>
       </c>
-      <c r="U5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="K6" s="3">
+      <c r="J6" s="3">
         <v>39814</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
       </c>
       <c r="T6">
         <v>5</v>
       </c>
-      <c r="U6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="K7" s="3">
+      <c r="G7" s="1"/>
+      <c r="J7" s="3">
         <v>39814</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>24</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
       </c>
       <c r="T7">
         <v>6</v>
       </c>
-      <c r="U7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
         <v>39814</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>24</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
       </c>
       <c r="T8">
         <v>7</v>
       </c>
-      <c r="U8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J9" s="3">
         <v>39814</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
       </c>
       <c r="T9">
         <v>8</v>
       </c>
-      <c r="U9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="5">
+      <c r="F10" s="5">
         <v>123</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <v>0.5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="J10" s="3">
         <v>42005</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
       </c>
       <c r="T10">
         <v>9</v>
       </c>
-      <c r="U10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="G11">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="4">
+      <c r="H11" s="4">
         <v>0.1</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3">
+      <c r="I11" s="4"/>
+      <c r="J11" s="3">
         <v>39448</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
         <v>24</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
       </c>
       <c r="T11">
         <v>10</v>
       </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="4">
+      <c r="H12" s="4">
         <v>0.1</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3">
+      <c r="I12" s="4"/>
+      <c r="J12" s="3">
         <v>39448</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
         <v>24</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
       </c>
       <c r="T12">
         <v>11</v>
       </c>
-      <c r="U12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
+      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="3">
+      <c r="J13" s="3">
         <v>39814</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
       </c>
       <c r="T13">
         <v>12</v>
       </c>
-      <c r="U13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G14">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="4">
+      <c r="H14" s="4">
         <v>0.1</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3">
+      <c r="I14" s="4"/>
+      <c r="J14" s="3">
         <v>39814</v>
       </c>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
         <v>24</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
       </c>
       <c r="T14">
         <v>13</v>
       </c>
-      <c r="U14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <v>14</v>
+      </c>
       <c r="T15">
         <v>14</v>
       </c>
-      <c r="U15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M18" s="1"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/test_v2.xlsx
+++ b/tests/test_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A95AF-59C4-1947-B0D7-7D96E095E819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3462F0FE-77D9-2942-859F-8B22026A5DDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>version</t>
   </si>
@@ -104,9 +104,6 @@
     <t>interp</t>
   </si>
   <si>
-    <t>{"2010-01-01":1, "2010-03-01":100 , "2010-12-01":110}</t>
-  </si>
-  <si>
     <t>linear</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>{"2010-01-01":1, "2010-03-01":100 }</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="T1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -755,10 +755,10 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
       <c r="F3">
         <v>0.4</v>
@@ -787,16 +787,18 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3">
         <v>39814</v>
@@ -813,16 +815,18 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="J5" s="3">
         <v>39814</v>
@@ -839,9 +843,11 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6">
@@ -862,7 +868,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -883,10 +892,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>23</v>
@@ -908,9 +920,11 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9">
@@ -928,13 +942,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="5">
         <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>0.5</v>
@@ -951,7 +968,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -978,7 +998,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1005,16 +1028,18 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="3">
         <v>39814</v>
@@ -1031,13 +1056,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="4">
         <v>0.1</v>
